--- a/teaching/traditional_assets/database/data/bangladesh/bangladesh_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/bangladesh/bangladesh_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00188</v>
+        <v>0.10175</v>
       </c>
       <c r="E2">
-        <v>0.0156</v>
+        <v>-0.121</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>-0.8199999999999992</v>
+        <v>11.485</v>
       </c>
       <c r="L2">
-        <v>-0.01193074348901497</v>
+        <v>0.2431717128943469</v>
       </c>
       <c r="M2">
-        <v>25.83</v>
+        <v>0.5468</v>
       </c>
       <c r="N2">
-        <v>0.03075732317218385</v>
+        <v>0.0005481704260651628</v>
       </c>
       <c r="O2">
-        <v>-31.50000000000003</v>
+        <v>0.04760992599042228</v>
       </c>
       <c r="P2">
-        <v>25.83</v>
+        <v>0.5468</v>
       </c>
       <c r="Q2">
-        <v>0.03075732317218385</v>
+        <v>0.0005481704260651628</v>
       </c>
       <c r="R2">
-        <v>-31.50000000000003</v>
+        <v>0.04760992599042228</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>291.51</v>
+        <v>152.88</v>
       </c>
       <c r="V2">
-        <v>0.3471183615146463</v>
+        <v>0.1532631578947369</v>
       </c>
       <c r="W2">
-        <v>0.01516698815123431</v>
+        <v>0.01701754385964912</v>
       </c>
       <c r="X2">
-        <v>0.09765562148344178</v>
+        <v>0.05301032849526706</v>
       </c>
       <c r="Y2">
-        <v>-0.08248863333220748</v>
+        <v>-0.03599278463561793</v>
       </c>
       <c r="Z2">
-        <v>0.1289299917460794</v>
+        <v>0.1026761451335898</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0695648422772705</v>
+        <v>0.05121153129360456</v>
       </c>
       <c r="AC2">
-        <v>-0.0695648422772705</v>
+        <v>-0.05121153129360456</v>
       </c>
       <c r="AD2">
-        <v>601.7</v>
+        <v>388.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>601.7</v>
+        <v>388.5</v>
       </c>
       <c r="AG2">
-        <v>310.1900000000001</v>
+        <v>235.62</v>
       </c>
       <c r="AH2">
-        <v>0.4174124176205342</v>
+        <v>0.2803030303030303</v>
       </c>
       <c r="AI2">
-        <v>0.6018805641692508</v>
+        <v>0.4072284357606314</v>
       </c>
       <c r="AJ2">
-        <v>0.2697327802850459</v>
+        <v>0.1910762942779292</v>
       </c>
       <c r="AK2">
-        <v>0.4380039255002189</v>
+        <v>0.2941095702320473</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -712,6 +712,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.0475</v>
+      </c>
+      <c r="E3">
+        <v>-0.121</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -725,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>-12.2</v>
+        <v>26.1</v>
       </c>
       <c r="L3">
-        <v>-0.9037037037037037</v>
+        <v>0.467741935483871</v>
       </c>
       <c r="M3">
-        <v>17.2</v>
+        <v>0.001</v>
       </c>
       <c r="N3">
-        <v>0.02478029102434808</v>
+        <v>1.064056182166418e-06</v>
       </c>
       <c r="O3">
-        <v>-1.409836065573771</v>
+        <v>3.831417624521073e-05</v>
       </c>
       <c r="P3">
-        <v>17.2</v>
+        <v>0.001</v>
       </c>
       <c r="Q3">
-        <v>0.02478029102434808</v>
+        <v>1.064056182166418e-06</v>
       </c>
       <c r="R3">
-        <v>-1.409836065573771</v>
+        <v>3.831417624521073e-05</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>146.2</v>
+        <v>136.2</v>
       </c>
       <c r="V3">
-        <v>0.2106324737069586</v>
+        <v>0.1449244520110662</v>
       </c>
       <c r="W3">
-        <v>-0.0287329251059821</v>
+        <v>0.1165178571428571</v>
       </c>
       <c r="X3">
-        <v>0.06998563703495871</v>
+        <v>0.05255099385128935</v>
       </c>
       <c r="Y3">
-        <v>-0.0987185621409408</v>
+        <v>0.0639668632915678</v>
       </c>
       <c r="Z3">
-        <v>0.04546985517009094</v>
+        <v>0.1458823529411764</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.061973497256068</v>
+        <v>0.05012067139234247</v>
       </c>
       <c r="AC3">
-        <v>-0.061973497256068</v>
+        <v>-0.05012067139234247</v>
       </c>
       <c r="AD3">
-        <v>304.7</v>
+        <v>330.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>304.7</v>
+        <v>330.4</v>
       </c>
       <c r="AG3">
-        <v>158.5</v>
+        <v>194.2</v>
       </c>
       <c r="AH3">
-        <v>0.3050660792951542</v>
+        <v>0.2601165170839238</v>
       </c>
       <c r="AI3">
-        <v>0.5763192736901834</v>
+        <v>0.3894848520570553</v>
       </c>
       <c r="AJ3">
-        <v>0.1859019469856908</v>
+        <v>0.1712522045855379</v>
       </c>
       <c r="AK3">
-        <v>0.4143790849673203</v>
+        <v>0.272714506389552</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,10 +835,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.00188</v>
-      </c>
-      <c r="E4">
-        <v>0.0774</v>
+        <v>0.251</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -847,82 +850,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.45</v>
+        <v>0.485</v>
       </c>
       <c r="L4">
-        <v>0.7142857142857143</v>
+        <v>0.1600660066006601</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.5458</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.01344334975369458</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>1.125360824742268</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>0.5458</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.01344334975369458</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>1.125360824742268</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>6.91</v>
+        <v>4.88</v>
       </c>
       <c r="V4">
-        <v>0.2867219917012448</v>
+        <v>0.1201970443349754</v>
       </c>
       <c r="W4">
-        <v>0.2918552036199095</v>
+        <v>0.01701754385964912</v>
       </c>
       <c r="X4">
-        <v>0.07738174628884681</v>
+        <v>0.05301032849526706</v>
       </c>
       <c r="Y4">
-        <v>0.2144734573310627</v>
+        <v>-0.03599278463561793</v>
       </c>
       <c r="Z4">
-        <v>0.2264292878635908</v>
+        <v>0.0789268038551706</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06657481566939071</v>
+        <v>0.05121153129360456</v>
       </c>
       <c r="AC4">
-        <v>-0.06657481566939071</v>
+        <v>-0.05121153129360456</v>
       </c>
       <c r="AD4">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="AG4">
-        <v>9.890000000000001</v>
+        <v>10.12</v>
       </c>
       <c r="AH4">
-        <v>0.4107579462102689</v>
+        <v>0.2697841726618705</v>
       </c>
       <c r="AI4">
-        <v>0.3071297989031079</v>
+        <v>0.2814258911819887</v>
       </c>
       <c r="AJ4">
-        <v>0.2909679317446308</v>
+        <v>0.1995268138801262</v>
       </c>
       <c r="AK4">
-        <v>0.2069470600544047</v>
+        <v>0.2090045435770343</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -939,7 +945,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LankaBangla Finance Limited (DSE:LANKABAFIN)</t>
+          <t>Union Capital Limited (DSE:UNIONCAP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -947,225 +953,100 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.153</v>
-      </c>
-      <c r="E5">
-        <v>-0.0462</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5">
-        <v>6.71</v>
+        <v>-15.1</v>
       </c>
       <c r="L5">
-        <v>0.1518099547511312</v>
+        <v>1.301724137931034</v>
       </c>
       <c r="M5">
-        <v>8.630000000000001</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.07931985294117648</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>1.286140089418778</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>8.630000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.07931985294117648</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>1.286140089418778</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>102.5</v>
+        <v>11.8</v>
       </c>
       <c r="V5">
-        <v>0.9420955882352942</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="W5">
-        <v>0.05906690140845071</v>
+        <v>-0.6138211382113821</v>
       </c>
       <c r="X5">
-        <v>0.1179294966780367</v>
+        <v>0.1082263329630232</v>
       </c>
       <c r="Y5">
-        <v>-0.05886259526958604</v>
+        <v>-0.7220474711744053</v>
       </c>
       <c r="Z5">
-        <v>0.2840616966580977</v>
+        <v>-0.2966751918158568</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.07255486888515031</v>
+        <v>0.06167651009416354</v>
       </c>
       <c r="AC5">
-        <v>-0.07255486888515031</v>
+        <v>-0.06167651009416354</v>
       </c>
       <c r="AD5">
-        <v>229.8</v>
+        <v>43.1</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>229.8</v>
+        <v>43.1</v>
       </c>
       <c r="AG5">
-        <v>127.3</v>
+        <v>31.3</v>
       </c>
       <c r="AH5">
-        <v>0.6786769049025398</v>
+        <v>0.7159468438538206</v>
       </c>
       <c r="AI5">
-        <v>0.6733079402285379</v>
+        <v>0.8223621446288876</v>
       </c>
       <c r="AJ5">
-        <v>0.5391783142736128</v>
+        <v>0.646694214876033</v>
       </c>
       <c r="AK5">
-        <v>0.5330820770519263</v>
+        <v>0.7707461216449151</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Union Capital Limited (DSE:UNIONCAP)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>-0.192</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>-1.78</v>
-      </c>
-      <c r="L6">
-        <v>-0.89</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>35.9</v>
-      </c>
-      <c r="V6">
-        <v>2.8046875</v>
-      </c>
-      <c r="W6">
-        <v>-0.06472727272727273</v>
-      </c>
-      <c r="X6">
-        <v>0.170235235714827</v>
-      </c>
-      <c r="Y6">
-        <v>-0.2349625084420997</v>
-      </c>
-      <c r="Z6">
-        <v>0.04914004914004914</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.07293355447943672</v>
-      </c>
-      <c r="AC6">
-        <v>-0.07293355447943672</v>
-      </c>
-      <c r="AD6">
-        <v>50.4</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>50.4</v>
-      </c>
-      <c r="AG6">
-        <v>14.5</v>
-      </c>
-      <c r="AH6">
-        <v>0.7974683544303797</v>
-      </c>
-      <c r="AI6">
-        <v>0.6719999999999999</v>
-      </c>
-      <c r="AJ6">
-        <v>0.5311355311355311</v>
-      </c>
-      <c r="AK6">
-        <v>0.370843989769821</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
         <v>0</v>
       </c>
     </row>
